--- a/WebApplication4/App_Data/วันหยุดประจำปี.xlsx
+++ b/WebApplication4/App_Data/วันหยุดประจำปี.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C35B9-E87D-4803-B790-757BC67C41F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD5CAA-364B-4C8F-8B63-FF74BB0BA556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="3970" yWindow="2740" windowWidth="14400" windowHeight="7360" xr2:uid="{CB593A09-CF99-40CB-9427-ADBBD1F23F16}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1880DF-B4DB-4D1F-BF04-80CA497B550B}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/WebApplication4/App_Data/วันหยุดประจำปี.xlsx
+++ b/WebApplication4/App_Data/วันหยุดประจำปี.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD5CAA-364B-4C8F-8B63-FF74BB0BA556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB75931-6BEE-4172-9177-0CA76970E652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3970" yWindow="2740" windowWidth="14400" windowHeight="7360" xr2:uid="{CB593A09-CF99-40CB-9427-ADBBD1F23F16}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB593A09-CF99-40CB-9427-ADBBD1F23F16}"/>
   </bookViews>
   <sheets>
     <sheet name="วันหยุดประจำปี" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>วันขึ้นปีใหม่</t>
   </si>
@@ -40,48 +43,6 @@
   </si>
   <si>
     <t>วันสงกรานต์</t>
-  </si>
-  <si>
-    <t>ชดเชย วันสงกรานต์</t>
-  </si>
-  <si>
-    <t>วันแรงงาน</t>
-  </si>
-  <si>
-    <t>วันฉัตรมงคล</t>
-  </si>
-  <si>
-    <t>ชดเชย วันเฉลิมพระชนมพรรษาสมเด็จพระนางเจ้าสุทิดา
- พัชรสุธาพิมลลักษณ พระบรมราชินีและวันวิสาขบูชา</t>
-  </si>
-  <si>
-    <t>วันเฉลิมพระชนมพรรษา
- พระบาทสมเด็จพระเจ้าอยู่หัว</t>
-  </si>
-  <si>
-    <t>วันอาสาฬหบูชา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชดเชย วันเฉลิมพระชนมพรรษา
-สมเด็จพระนางเจ้าสิริกิติ์ พระบรมราชินีนาถ
- พระบรมราชชนนีพันปีหลวง และวันแม่แห่งชาติ </t>
-  </si>
-  <si>
-    <t>วันคล้ายวันสวรรคตพระบาทสมเด็จพระบรม
- ชนกาธิเบศร มหาภูมิพลอดุลยเดชมหาราชบรมนาถบพิตร</t>
-  </si>
-  <si>
-    <t>วันปิยมหาราช</t>
-  </si>
-  <si>
-    <t>วันคล้ายวันพระบรมราชสมภพ
- พระบาทสมเด็จพระบรมชนกาธิเบศร
- มหาภูมิพลอดุลยเดชมหาราช บรมนาถบพิตร
- วันชาติ และวันพ่อแห่งชาต</t>
-  </si>
-  <si>
-    <t>วันคล้ายวันสวรรคตพระบาทสมเด็จพระบรม
-ชดเชย วันรัฐธรรมนูญ</t>
   </si>
   <si>
     <t>Day_Holiday</t>
@@ -451,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1880DF-B4DB-4D1F-BF04-80CA497B550B}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -465,15 +426,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -481,7 +442,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45293</v>
+        <v>44928</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -489,7 +450,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45357</v>
+        <v>44991</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -497,7 +458,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45388</v>
+        <v>45022</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -505,7 +466,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45395</v>
+        <v>45029</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -513,117 +474,331 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45396</v>
+        <v>45030</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45397</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45398</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45416</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="56" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>45448</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>45501</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45505</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="70" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>45516</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="56" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>45578</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>45588</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="84" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>45631</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>45637</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>47098</v>
+      </c>
+      <c r="B77" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E3C63A-5DE1-41C8-B9C0-BEF9942AA513}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BECB9B-8662-4E1C-B1D2-BBD067970B05}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2807AE-33BF-40F3-A357-7CDD93C74BA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>